--- a/data/pca/factorExposure/factorExposure_2015-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02726103861368344</v>
+        <v>0.02194416227375734</v>
       </c>
       <c r="C2">
-        <v>-0.03128166818808142</v>
+        <v>-0.04316703872830372</v>
       </c>
       <c r="D2">
-        <v>0.1160351769161371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1300873871312326</v>
+      </c>
+      <c r="E2">
+        <v>0.03598849471329382</v>
+      </c>
+      <c r="F2">
+        <v>0.02993125439326183</v>
+      </c>
+      <c r="G2">
+        <v>0.08438597289353393</v>
+      </c>
+      <c r="H2">
+        <v>-0.06841253807737134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.004159189050109444</v>
+        <v>-0.008989315003338131</v>
       </c>
       <c r="C3">
-        <v>-0.05581934866295656</v>
+        <v>-0.04099620848208986</v>
       </c>
       <c r="D3">
-        <v>0.05899327473493974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04533808966492228</v>
+      </c>
+      <c r="E3">
+        <v>0.04723727436191177</v>
+      </c>
+      <c r="F3">
+        <v>0.04792594709818991</v>
+      </c>
+      <c r="G3">
+        <v>0.1112156862503338</v>
+      </c>
+      <c r="H3">
+        <v>-0.0429702681963117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05095552285529422</v>
+        <v>0.04264345288553018</v>
       </c>
       <c r="C4">
-        <v>-0.06785147169452543</v>
+        <v>-0.08482141293840138</v>
       </c>
       <c r="D4">
-        <v>0.129226746360401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1465791850556038</v>
+      </c>
+      <c r="E4">
+        <v>0.05074155739521508</v>
+      </c>
+      <c r="F4">
+        <v>0.06100554187615888</v>
+      </c>
+      <c r="G4">
+        <v>-0.04744424691387675</v>
+      </c>
+      <c r="H4">
+        <v>-0.01181655878228792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03310252975601646</v>
+        <v>0.03203725930247996</v>
       </c>
       <c r="C6">
-        <v>-0.02471264952460846</v>
+        <v>-0.03382368036812162</v>
       </c>
       <c r="D6">
-        <v>0.1496051201013119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1390230257952661</v>
+      </c>
+      <c r="E6">
+        <v>0.006908098517662802</v>
+      </c>
+      <c r="F6">
+        <v>0.05795076481570219</v>
+      </c>
+      <c r="G6">
+        <v>0.009459507931723904</v>
+      </c>
+      <c r="H6">
+        <v>-0.05720738797205243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01714513033781223</v>
+        <v>0.01285533556250173</v>
       </c>
       <c r="C7">
-        <v>-0.03173474278633528</v>
+        <v>-0.03851270961163908</v>
       </c>
       <c r="D7">
-        <v>0.1098704925438388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09830763093859296</v>
+      </c>
+      <c r="E7">
+        <v>-0.009911884584673181</v>
+      </c>
+      <c r="F7">
+        <v>0.02679211455117387</v>
+      </c>
+      <c r="G7">
+        <v>0.02498327777988586</v>
+      </c>
+      <c r="H7">
+        <v>-0.05838246548139862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01144911849102235</v>
+        <v>0.00543355226288909</v>
       </c>
       <c r="C8">
-        <v>-0.03472589465460497</v>
+        <v>-0.04026220930563686</v>
       </c>
       <c r="D8">
-        <v>0.06675650924654791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07842153207329863</v>
+      </c>
+      <c r="E8">
+        <v>0.01792860254849889</v>
+      </c>
+      <c r="F8">
+        <v>0.07013527905122764</v>
+      </c>
+      <c r="G8">
+        <v>0.05777171783099787</v>
+      </c>
+      <c r="H8">
+        <v>-0.0376656500794427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03969077750647733</v>
+        <v>0.03190815768355065</v>
       </c>
       <c r="C9">
-        <v>-0.06092173571388801</v>
+        <v>-0.0734717505536886</v>
       </c>
       <c r="D9">
-        <v>0.1195016536317121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1252828464651475</v>
+      </c>
+      <c r="E9">
+        <v>0.03384510357153106</v>
+      </c>
+      <c r="F9">
+        <v>0.03704896622418112</v>
+      </c>
+      <c r="G9">
+        <v>-0.03283215400784042</v>
+      </c>
+      <c r="H9">
+        <v>-0.004189490994275993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1310148493315211</v>
+        <v>0.1806163149501429</v>
       </c>
       <c r="C10">
-        <v>0.1870347824371004</v>
+        <v>0.168255246391796</v>
       </c>
       <c r="D10">
-        <v>0.001188079910195163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.00850390142508007</v>
+      </c>
+      <c r="E10">
+        <v>0.03216338876975861</v>
+      </c>
+      <c r="F10">
+        <v>0.04245182727143289</v>
+      </c>
+      <c r="G10">
+        <v>-0.008636106122288449</v>
+      </c>
+      <c r="H10">
+        <v>0.04842711393639814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03346290759717789</v>
+        <v>0.0263632243592668</v>
       </c>
       <c r="C11">
-        <v>-0.04332516319247013</v>
+        <v>-0.05192312035364356</v>
       </c>
       <c r="D11">
-        <v>0.06217229264791531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05504503278717704</v>
+      </c>
+      <c r="E11">
+        <v>-0.01758560165511767</v>
+      </c>
+      <c r="F11">
+        <v>-0.008451074951361824</v>
+      </c>
+      <c r="G11">
+        <v>0.01002774923312491</v>
+      </c>
+      <c r="H11">
+        <v>-0.0293202813236365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03868512174712752</v>
+        <v>0.02970125277216156</v>
       </c>
       <c r="C12">
-        <v>-0.04556268347055246</v>
+        <v>-0.05306298954160597</v>
       </c>
       <c r="D12">
-        <v>0.06818126367568417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05560158732677268</v>
+      </c>
+      <c r="E12">
+        <v>-0.008352386812492367</v>
+      </c>
+      <c r="F12">
+        <v>-0.01372790689690895</v>
+      </c>
+      <c r="G12">
+        <v>0.01139753286781022</v>
+      </c>
+      <c r="H12">
+        <v>-0.03283559088217281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01203884479628218</v>
+        <v>0.01317927034010349</v>
       </c>
       <c r="C13">
-        <v>-0.03748887670195468</v>
+        <v>-0.04626485435358974</v>
       </c>
       <c r="D13">
-        <v>0.1480457195095332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1600840944033662</v>
+      </c>
+      <c r="E13">
+        <v>0.0004254292063426632</v>
+      </c>
+      <c r="F13">
+        <v>0.06938741444346844</v>
+      </c>
+      <c r="G13">
+        <v>0.04296025811362407</v>
+      </c>
+      <c r="H13">
+        <v>-0.03531749271752217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.003730172030335839</v>
+        <v>0.00469612391412804</v>
       </c>
       <c r="C14">
-        <v>-0.02521690128043456</v>
+        <v>-0.02867597555366697</v>
       </c>
       <c r="D14">
-        <v>0.1046676256280412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1060493892150801</v>
+      </c>
+      <c r="E14">
+        <v>0.01241682878453169</v>
+      </c>
+      <c r="F14">
+        <v>0.02739882809343037</v>
+      </c>
+      <c r="G14">
+        <v>0.02866887120836159</v>
+      </c>
+      <c r="H14">
+        <v>-0.08640363207447449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002673488844548021</v>
+        <v>0.001448576795686268</v>
       </c>
       <c r="C15">
-        <v>-0.005962003115249455</v>
+        <v>-0.01459123261111728</v>
       </c>
       <c r="D15">
-        <v>0.0121273191053442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04072372812851795</v>
+      </c>
+      <c r="E15">
+        <v>0.006913348086346438</v>
+      </c>
+      <c r="F15">
+        <v>0.00770566685209424</v>
+      </c>
+      <c r="G15">
+        <v>0.009570482617194507</v>
+      </c>
+      <c r="H15">
+        <v>-0.02023074418259868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03001012121079763</v>
+        <v>0.02424314166575041</v>
       </c>
       <c r="C16">
-        <v>-0.04522053049937048</v>
+        <v>-0.05056523022782635</v>
       </c>
       <c r="D16">
-        <v>0.0722630997230857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06114347954895811</v>
+      </c>
+      <c r="E16">
+        <v>-0.002817005350619925</v>
+      </c>
+      <c r="F16">
+        <v>-0.0003465120421124575</v>
+      </c>
+      <c r="G16">
+        <v>0.008636666766319868</v>
+      </c>
+      <c r="H16">
+        <v>-0.04469033532048924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01043872586491395</v>
+        <v>0.005801662340812245</v>
       </c>
       <c r="C19">
-        <v>-0.0307549353433531</v>
+        <v>-0.02711806029835612</v>
       </c>
       <c r="D19">
-        <v>0.1511745605419241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1138027229524457</v>
+      </c>
+      <c r="E19">
+        <v>0.04438730426612641</v>
+      </c>
+      <c r="F19">
+        <v>0.01425115598918947</v>
+      </c>
+      <c r="G19">
+        <v>0.02626518683544266</v>
+      </c>
+      <c r="H19">
+        <v>-0.04662808182954164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01416322994964288</v>
+        <v>0.01318703240223343</v>
       </c>
       <c r="C20">
-        <v>-0.03602938832387145</v>
+        <v>-0.04097315234253506</v>
       </c>
       <c r="D20">
-        <v>0.09687125999636993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1068848342579317</v>
+      </c>
+      <c r="E20">
+        <v>0.03244507954435571</v>
+      </c>
+      <c r="F20">
+        <v>0.02590113812465055</v>
+      </c>
+      <c r="G20">
+        <v>0.008392198758449359</v>
+      </c>
+      <c r="H20">
+        <v>-0.05445439605758375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01106743673417079</v>
+        <v>0.005920313632777312</v>
       </c>
       <c r="C21">
-        <v>-0.03826820291838619</v>
+        <v>-0.04642718424275675</v>
       </c>
       <c r="D21">
-        <v>0.1594697168650135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1559548850104766</v>
+      </c>
+      <c r="E21">
+        <v>0.06009217497420626</v>
+      </c>
+      <c r="F21">
+        <v>0.06353482266355408</v>
+      </c>
+      <c r="G21">
+        <v>0.01391097553073654</v>
+      </c>
+      <c r="H21">
+        <v>-0.08065590436444139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002453008172623501</v>
+        <v>0.007328943887332808</v>
       </c>
       <c r="C22">
-        <v>-0.05001717744829099</v>
+        <v>-0.05395305143432719</v>
       </c>
       <c r="D22">
-        <v>0.1352789326178317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1922864723583011</v>
+      </c>
+      <c r="E22">
+        <v>-0.003832431819272809</v>
+      </c>
+      <c r="F22">
+        <v>0.121090115797089</v>
+      </c>
+      <c r="G22">
+        <v>0.1297194764031834</v>
+      </c>
+      <c r="H22">
+        <v>0.07714435913172742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00263200023004745</v>
+        <v>0.007399505326043252</v>
       </c>
       <c r="C23">
-        <v>-0.05032869333787744</v>
+        <v>-0.05451984197648447</v>
       </c>
       <c r="D23">
-        <v>0.1347166830501968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1914118524289979</v>
+      </c>
+      <c r="E23">
+        <v>-0.003620417282378118</v>
+      </c>
+      <c r="F23">
+        <v>0.1211166664610319</v>
+      </c>
+      <c r="G23">
+        <v>0.1290268576800394</v>
+      </c>
+      <c r="H23">
+        <v>0.07717323412240698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03691930062769803</v>
+        <v>0.02690478476280134</v>
       </c>
       <c r="C24">
-        <v>-0.05781415357290809</v>
+        <v>-0.06279346767384276</v>
       </c>
       <c r="D24">
-        <v>0.07186899469536125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06087274204021136</v>
+      </c>
+      <c r="E24">
+        <v>-0.004597354151512571</v>
+      </c>
+      <c r="F24">
+        <v>-0.001485611944063947</v>
+      </c>
+      <c r="G24">
+        <v>0.003177987292060859</v>
+      </c>
+      <c r="H24">
+        <v>-0.0566920289045032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04171489499526231</v>
+        <v>0.03202865454288487</v>
       </c>
       <c r="C25">
-        <v>-0.0517390684564963</v>
+        <v>-0.06021988580057413</v>
       </c>
       <c r="D25">
-        <v>0.07080896504490708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06114932329198208</v>
+      </c>
+      <c r="E25">
+        <v>0.000645422103773777</v>
+      </c>
+      <c r="F25">
+        <v>-7.284567534296548e-05</v>
+      </c>
+      <c r="G25">
+        <v>0.009944755034282599</v>
+      </c>
+      <c r="H25">
+        <v>-0.02297584271020344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01379240257517969</v>
+        <v>0.01259698316576605</v>
       </c>
       <c r="C26">
-        <v>-0.0162059405098383</v>
+        <v>-0.0242593423450742</v>
       </c>
       <c r="D26">
-        <v>0.07500604922150265</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07376305119261013</v>
+      </c>
+      <c r="E26">
+        <v>0.005317008509008403</v>
+      </c>
+      <c r="F26">
+        <v>0.02880541513876488</v>
+      </c>
+      <c r="G26">
+        <v>0.0159158961697253</v>
+      </c>
+      <c r="H26">
+        <v>-0.04488689192836979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1940879122164695</v>
+        <v>0.2581688039751993</v>
       </c>
       <c r="C28">
-        <v>0.2504214379993789</v>
+        <v>0.217036182840584</v>
       </c>
       <c r="D28">
-        <v>-0.004400261459699645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.002884888935808158</v>
+      </c>
+      <c r="E28">
+        <v>0.0615757366198676</v>
+      </c>
+      <c r="F28">
+        <v>0.03085102601598808</v>
+      </c>
+      <c r="G28">
+        <v>-0.03553984969745672</v>
+      </c>
+      <c r="H28">
+        <v>0.05790771962320476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003021809170459485</v>
+        <v>0.004369664491981605</v>
       </c>
       <c r="C29">
-        <v>-0.02377687862859037</v>
+        <v>-0.02806658305315112</v>
       </c>
       <c r="D29">
-        <v>0.09666194627734938</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1039053094993072</v>
+      </c>
+      <c r="E29">
+        <v>-0.002976960524668061</v>
+      </c>
+      <c r="F29">
+        <v>0.04559749137797886</v>
+      </c>
+      <c r="G29">
+        <v>0.02114223554596734</v>
+      </c>
+      <c r="H29">
+        <v>-0.08176865216726632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02996185654758192</v>
+        <v>0.02847183814554291</v>
       </c>
       <c r="C30">
-        <v>-0.06455549406172678</v>
+        <v>-0.07675259355233709</v>
       </c>
       <c r="D30">
-        <v>0.1606880587615336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1666419872581529</v>
+      </c>
+      <c r="E30">
+        <v>0.004045961234749754</v>
+      </c>
+      <c r="F30">
+        <v>0.04316333770847828</v>
+      </c>
+      <c r="G30">
+        <v>0.003196165910142062</v>
+      </c>
+      <c r="H30">
+        <v>-0.06617479235801997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05522566115624472</v>
+        <v>0.03953601861953359</v>
       </c>
       <c r="C31">
-        <v>-0.07674684366555982</v>
+        <v>-0.08382780864657746</v>
       </c>
       <c r="D31">
-        <v>0.05854353431356912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04503492509153035</v>
+      </c>
+      <c r="E31">
+        <v>0.008702727688170538</v>
+      </c>
+      <c r="F31">
+        <v>0.03207567296024902</v>
+      </c>
+      <c r="G31">
+        <v>0.01511261289860677</v>
+      </c>
+      <c r="H31">
+        <v>-0.0122997694164817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02433356285434256</v>
+        <v>0.02250566198211562</v>
       </c>
       <c r="C32">
-        <v>-0.02440839622854985</v>
+        <v>-0.03057372300183459</v>
       </c>
       <c r="D32">
-        <v>0.09948531163162141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1217193562810718</v>
+      </c>
+      <c r="E32">
+        <v>0.03700902993111664</v>
+      </c>
+      <c r="F32">
+        <v>0.06214462729127382</v>
+      </c>
+      <c r="G32">
+        <v>0.02063868717281816</v>
+      </c>
+      <c r="H32">
+        <v>-0.02661804592178238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02283261978501686</v>
+        <v>0.02115596053642962</v>
       </c>
       <c r="C33">
-        <v>-0.04478676542326374</v>
+        <v>-0.05207293925130535</v>
       </c>
       <c r="D33">
-        <v>0.1495033983509946</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1385009145886693</v>
+      </c>
+      <c r="E33">
+        <v>0.022072427441842</v>
+      </c>
+      <c r="F33">
+        <v>0.0360801459480995</v>
+      </c>
+      <c r="G33">
+        <v>0.01286118777550964</v>
+      </c>
+      <c r="H33">
+        <v>-0.04617963503999933</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0350660858796424</v>
+        <v>0.02416887150809209</v>
       </c>
       <c r="C34">
-        <v>-0.06249893652614631</v>
+        <v>-0.06506187633813403</v>
       </c>
       <c r="D34">
-        <v>0.06937629919821965</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05006435777891727</v>
+      </c>
+      <c r="E34">
+        <v>-0.01994362804150144</v>
+      </c>
+      <c r="F34">
+        <v>-0.01802981142378713</v>
+      </c>
+      <c r="G34">
+        <v>0.02158317152736763</v>
+      </c>
+      <c r="H34">
+        <v>-0.04356041714772912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001342707177658086</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002164381818488034</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01040842205102085</v>
+      </c>
+      <c r="E35">
+        <v>-0.0008014236582896652</v>
+      </c>
+      <c r="F35">
+        <v>0.001923531657227385</v>
+      </c>
+      <c r="G35">
+        <v>0.0008089439634877371</v>
+      </c>
+      <c r="H35">
+        <v>-0.003462939267596138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01896214181561944</v>
+        <v>0.01781878146518569</v>
       </c>
       <c r="C36">
-        <v>-0.009480819190967766</v>
+        <v>-0.01988972613109735</v>
       </c>
       <c r="D36">
-        <v>0.09670116288492782</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08778541499038571</v>
+      </c>
+      <c r="E36">
+        <v>0.01512711359620111</v>
+      </c>
+      <c r="F36">
+        <v>0.02273293087924704</v>
+      </c>
+      <c r="G36">
+        <v>-0.003707821674451602</v>
+      </c>
+      <c r="H36">
+        <v>-0.04044236648742475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0182355054899119</v>
+        <v>0.02198378490416992</v>
       </c>
       <c r="C38">
-        <v>-0.01654241235485329</v>
+        <v>-0.02107036504445103</v>
       </c>
       <c r="D38">
-        <v>0.08527878757960125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08251151940631735</v>
+      </c>
+      <c r="E38">
+        <v>0.02851707732372503</v>
+      </c>
+      <c r="F38">
+        <v>-0.015021186468267</v>
+      </c>
+      <c r="G38">
+        <v>0.02076160797512926</v>
+      </c>
+      <c r="H38">
+        <v>-0.04109841897086215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03812542117189109</v>
+        <v>0.02916024757550806</v>
       </c>
       <c r="C39">
-        <v>-0.05939478412719713</v>
+        <v>-0.07414027321049516</v>
       </c>
       <c r="D39">
-        <v>0.1102832968550892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1102407622584936</v>
+      </c>
+      <c r="E39">
+        <v>-0.0118634152807715</v>
+      </c>
+      <c r="F39">
+        <v>-0.01104872704952317</v>
+      </c>
+      <c r="G39">
+        <v>-0.001099017919994067</v>
+      </c>
+      <c r="H39">
+        <v>-0.09105530259908215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01626812437847053</v>
+        <v>0.01189529367277289</v>
       </c>
       <c r="C40">
-        <v>-0.04309383817354204</v>
+        <v>-0.03968310049140713</v>
       </c>
       <c r="D40">
-        <v>0.09460738895641671</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09508491659524806</v>
+      </c>
+      <c r="E40">
+        <v>0.02331834044900515</v>
+      </c>
+      <c r="F40">
+        <v>0.09786624000649216</v>
+      </c>
+      <c r="G40">
+        <v>0.1785503607494366</v>
+      </c>
+      <c r="H40">
+        <v>-0.1063109326772034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03029134340521912</v>
+        <v>0.02813762660014819</v>
       </c>
       <c r="C41">
-        <v>-0.004565858945984927</v>
+        <v>-0.01395675255952753</v>
       </c>
       <c r="D41">
-        <v>0.07081629470494236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05265562304488878</v>
+      </c>
+      <c r="E41">
+        <v>0.04279165551696035</v>
+      </c>
+      <c r="F41">
+        <v>0.01723155590946154</v>
+      </c>
+      <c r="G41">
+        <v>0.03102327372221952</v>
+      </c>
+      <c r="H41">
+        <v>-0.03827303230156616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02321060858690534</v>
+        <v>0.0196936591751973</v>
       </c>
       <c r="C43">
-        <v>-0.012768114038505</v>
+        <v>-0.01982910459601248</v>
       </c>
       <c r="D43">
-        <v>0.1032511965515847</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08004515736715842</v>
+      </c>
+      <c r="E43">
+        <v>0.02142147918438767</v>
+      </c>
+      <c r="F43">
+        <v>0.01281856746435621</v>
+      </c>
+      <c r="G43">
+        <v>0.02435326123678831</v>
+      </c>
+      <c r="H43">
+        <v>-0.04347003212375367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01058480027205925</v>
+        <v>0.01198049372006569</v>
       </c>
       <c r="C44">
-        <v>-0.04411558919855162</v>
+        <v>-0.04466289437321589</v>
       </c>
       <c r="D44">
-        <v>0.09351066951408776</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1114737567131816</v>
+      </c>
+      <c r="E44">
+        <v>0.02827348662658932</v>
+      </c>
+      <c r="F44">
+        <v>0.0243073231671043</v>
+      </c>
+      <c r="G44">
+        <v>0.009474969606988203</v>
+      </c>
+      <c r="H44">
+        <v>-0.04938679971712724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01435978067695217</v>
+        <v>0.009535908087875718</v>
       </c>
       <c r="C46">
-        <v>-0.02652180429840064</v>
+        <v>-0.0344231260099648</v>
       </c>
       <c r="D46">
-        <v>0.1055030065467857</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09945534756221534</v>
+      </c>
+      <c r="E46">
+        <v>0.009159920635048479</v>
+      </c>
+      <c r="F46">
+        <v>0.02381254674527681</v>
+      </c>
+      <c r="G46">
+        <v>0.008991324706469224</v>
+      </c>
+      <c r="H46">
+        <v>-0.08405550940392277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09092459111671453</v>
+        <v>0.06946749997400269</v>
       </c>
       <c r="C47">
-        <v>-0.08726603611681039</v>
+        <v>-0.1027985575801833</v>
       </c>
       <c r="D47">
-        <v>0.03197264212868692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0242641922332206</v>
+      </c>
+      <c r="E47">
+        <v>0.02184615434951848</v>
+      </c>
+      <c r="F47">
+        <v>0.02051474417737717</v>
+      </c>
+      <c r="G47">
+        <v>0.006595851745268668</v>
+      </c>
+      <c r="H47">
+        <v>0.05537241158023074</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01162500327996368</v>
+        <v>0.01233871985473562</v>
       </c>
       <c r="C48">
-        <v>-0.02148298068709075</v>
+        <v>-0.02669371465230462</v>
       </c>
       <c r="D48">
-        <v>0.086577426876702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08625342935709035</v>
+      </c>
+      <c r="E48">
+        <v>0.04269054699004566</v>
+      </c>
+      <c r="F48">
+        <v>0.03138983282029204</v>
+      </c>
+      <c r="G48">
+        <v>0.006423645545739744</v>
+      </c>
+      <c r="H48">
+        <v>-0.05843162051268853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05018285696921362</v>
+        <v>0.03705751987447341</v>
       </c>
       <c r="C50">
-        <v>-0.06105698572194039</v>
+        <v>-0.07057783200061996</v>
       </c>
       <c r="D50">
-        <v>0.06077685366752813</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05364387111362291</v>
+      </c>
+      <c r="E50">
+        <v>0.014933151641179</v>
+      </c>
+      <c r="F50">
+        <v>0.03651695567164626</v>
+      </c>
+      <c r="G50">
+        <v>0.04452547072461382</v>
+      </c>
+      <c r="H50">
+        <v>0.001074775967594402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009982190859245319</v>
+        <v>0.008250116943830229</v>
       </c>
       <c r="C51">
-        <v>-0.01608449815834481</v>
+        <v>-0.02225067061405157</v>
       </c>
       <c r="D51">
-        <v>0.08790481062865263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09308940128473596</v>
+      </c>
+      <c r="E51">
+        <v>-0.005433328041922203</v>
+      </c>
+      <c r="F51">
+        <v>0.01224302608144478</v>
+      </c>
+      <c r="G51">
+        <v>-3.58756189200898e-05</v>
+      </c>
+      <c r="H51">
+        <v>-0.06924143864404991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1060891073994237</v>
+        <v>0.08920444140107481</v>
       </c>
       <c r="C53">
-        <v>-0.1064497603329676</v>
+        <v>-0.12583431678485</v>
       </c>
       <c r="D53">
-        <v>-0.008812841480452863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004982208495458972</v>
+      </c>
+      <c r="E53">
+        <v>0.06885022128811037</v>
+      </c>
+      <c r="F53">
+        <v>0.08321012902912145</v>
+      </c>
+      <c r="G53">
+        <v>0.006221473192659806</v>
+      </c>
+      <c r="H53">
+        <v>0.01547397079769797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01863668177505616</v>
+        <v>0.0163591644590843</v>
       </c>
       <c r="C54">
-        <v>-0.02786509980832022</v>
+        <v>-0.03553299195645982</v>
       </c>
       <c r="D54">
-        <v>0.1115054066889277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09571089848432594</v>
+      </c>
+      <c r="E54">
+        <v>0.02240117268932487</v>
+      </c>
+      <c r="F54">
+        <v>0.01891897933258643</v>
+      </c>
+      <c r="G54">
+        <v>0.04499778370658582</v>
+      </c>
+      <c r="H54">
+        <v>-0.0643031061359462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09837541975827764</v>
+        <v>0.07954403936971424</v>
       </c>
       <c r="C55">
-        <v>-0.08186784662751624</v>
+        <v>-0.1007855947224793</v>
       </c>
       <c r="D55">
-        <v>-0.02138228413329962</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02037666716221099</v>
+      </c>
+      <c r="E55">
+        <v>0.02117191333555586</v>
+      </c>
+      <c r="F55">
+        <v>0.06339887435005685</v>
+      </c>
+      <c r="G55">
+        <v>0.03241188297605466</v>
+      </c>
+      <c r="H55">
+        <v>0.02019530570663143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1360950670203492</v>
+        <v>0.1104479672180896</v>
       </c>
       <c r="C56">
-        <v>-0.1149259506262697</v>
+        <v>-0.1483089068729647</v>
       </c>
       <c r="D56">
-        <v>-0.02142718549664935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02321444421912438</v>
+      </c>
+      <c r="E56">
+        <v>0.04651933823667674</v>
+      </c>
+      <c r="F56">
+        <v>0.05364559005139537</v>
+      </c>
+      <c r="G56">
+        <v>0.03762073982924809</v>
+      </c>
+      <c r="H56">
+        <v>0.03909918267343786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.008820959290539363</v>
+        <v>0.0005561848188864524</v>
       </c>
       <c r="C58">
-        <v>-0.03968799745229609</v>
+        <v>-0.05260184950046526</v>
       </c>
       <c r="D58">
-        <v>0.1979085151684226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2633404511022627</v>
+      </c>
+      <c r="E58">
+        <v>0.09085437824113897</v>
+      </c>
+      <c r="F58">
+        <v>0.1236745783657959</v>
+      </c>
+      <c r="G58">
+        <v>0.07534619470429814</v>
+      </c>
+      <c r="H58">
+        <v>0.02453731794271093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1490403554486324</v>
+        <v>0.1969953298205235</v>
       </c>
       <c r="C59">
-        <v>0.16959854708434</v>
+        <v>0.1409463380240807</v>
       </c>
       <c r="D59">
-        <v>0.05418023665415214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06842225049118979</v>
+      </c>
+      <c r="E59">
+        <v>0.0453578231629221</v>
+      </c>
+      <c r="F59">
+        <v>-0.009830599725561957</v>
+      </c>
+      <c r="G59">
+        <v>-0.01347358671738635</v>
+      </c>
+      <c r="H59">
+        <v>0.02257217669371157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2366797475887266</v>
+        <v>0.2102399147239272</v>
       </c>
       <c r="C60">
-        <v>-0.07899579693818982</v>
+        <v>-0.1306244728418788</v>
       </c>
       <c r="D60">
-        <v>0.1678904964591852</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1090114612787051</v>
+      </c>
+      <c r="E60">
+        <v>-0.3168405161115765</v>
+      </c>
+      <c r="F60">
+        <v>-0.1265005574703569</v>
+      </c>
+      <c r="G60">
+        <v>-0.1000317156611744</v>
+      </c>
+      <c r="H60">
+        <v>0.1755685889398457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04186480783791832</v>
+        <v>0.03257595693484783</v>
       </c>
       <c r="C61">
-        <v>-0.05651984296661688</v>
+        <v>-0.06753881071203509</v>
       </c>
       <c r="D61">
-        <v>0.114949906946836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09696519209208969</v>
+      </c>
+      <c r="E61">
+        <v>-0.01298662210159177</v>
+      </c>
+      <c r="F61">
+        <v>-0.01032076604826867</v>
+      </c>
+      <c r="G61">
+        <v>-0.001200752384287087</v>
+      </c>
+      <c r="H61">
+        <v>-0.04762807368707681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01456435594202049</v>
+        <v>0.0115984195878245</v>
       </c>
       <c r="C63">
-        <v>-0.02660498460183901</v>
+        <v>-0.03516506851097786</v>
       </c>
       <c r="D63">
-        <v>0.08752154273181788</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07695984494150271</v>
+      </c>
+      <c r="E63">
+        <v>-0.001979595031329324</v>
+      </c>
+      <c r="F63">
+        <v>0.02494778002886678</v>
+      </c>
+      <c r="G63">
+        <v>0.006311102380273283</v>
+      </c>
+      <c r="H63">
+        <v>-0.04957045753921435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05606111199153475</v>
+        <v>0.04088978353005403</v>
       </c>
       <c r="C64">
-        <v>-0.07365681440939989</v>
+        <v>-0.08366451458484457</v>
       </c>
       <c r="D64">
-        <v>0.05034531963388595</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05055122190725289</v>
+      </c>
+      <c r="E64">
+        <v>0.01152182549555857</v>
+      </c>
+      <c r="F64">
+        <v>0.01395858615747356</v>
+      </c>
+      <c r="G64">
+        <v>-0.07056245139325613</v>
+      </c>
+      <c r="H64">
+        <v>-0.07328449709444929</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03043851932828703</v>
+        <v>0.02790985403016409</v>
       </c>
       <c r="C65">
-        <v>-0.02175734746343353</v>
+        <v>-0.03415329387831304</v>
       </c>
       <c r="D65">
-        <v>0.111986266830776</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1080080030334655</v>
+      </c>
+      <c r="E65">
+        <v>-0.005161255786040518</v>
+      </c>
+      <c r="F65">
+        <v>0.03274142471808612</v>
+      </c>
+      <c r="G65">
+        <v>0.01521704470546997</v>
+      </c>
+      <c r="H65">
+        <v>-0.02238496603011686</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04031707784794852</v>
+        <v>0.03130655488977768</v>
       </c>
       <c r="C66">
-        <v>-0.06825433728726533</v>
+        <v>-0.08608345207597477</v>
       </c>
       <c r="D66">
-        <v>0.1232263173380693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1349780574892183</v>
+      </c>
+      <c r="E66">
+        <v>-0.008262260532557863</v>
+      </c>
+      <c r="F66">
+        <v>-0.006156804707394006</v>
+      </c>
+      <c r="G66">
+        <v>0.01027924306705601</v>
+      </c>
+      <c r="H66">
+        <v>-0.04855485281403837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03977585579920216</v>
+        <v>0.0378180414843549</v>
       </c>
       <c r="C67">
-        <v>-0.02261712174313228</v>
+        <v>-0.03014538991674999</v>
       </c>
       <c r="D67">
-        <v>0.04781547805473199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03648013361664821</v>
+      </c>
+      <c r="E67">
+        <v>0.005654786312228678</v>
+      </c>
+      <c r="F67">
+        <v>-0.03072592306601881</v>
+      </c>
+      <c r="G67">
+        <v>0.01931828471360286</v>
+      </c>
+      <c r="H67">
+        <v>-0.04469842186138172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1829885755402535</v>
+        <v>0.2285384811403834</v>
       </c>
       <c r="C68">
-        <v>0.2015578691006121</v>
+        <v>0.1615545938961882</v>
       </c>
       <c r="D68">
-        <v>0.0209604891136069</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03046549659011963</v>
+      </c>
+      <c r="E68">
+        <v>0.01669230591537851</v>
+      </c>
+      <c r="F68">
+        <v>0.03892627982428585</v>
+      </c>
+      <c r="G68">
+        <v>0.03155554590639018</v>
+      </c>
+      <c r="H68">
+        <v>0.01785765319367845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0847377400007643</v>
+        <v>0.06375199832100298</v>
       </c>
       <c r="C69">
-        <v>-0.1028120080228626</v>
+        <v>-0.1087530889311133</v>
       </c>
       <c r="D69">
-        <v>0.06094536102820639</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03955049631004191</v>
+      </c>
+      <c r="E69">
+        <v>0.003823694963491396</v>
+      </c>
+      <c r="F69">
+        <v>0.007730482615208964</v>
+      </c>
+      <c r="G69">
+        <v>0.01108634492821911</v>
+      </c>
+      <c r="H69">
+        <v>0.03041389935269407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1715132937493425</v>
+        <v>0.2174558827710838</v>
       </c>
       <c r="C71">
-        <v>0.2085118903278377</v>
+        <v>0.1705044641560623</v>
       </c>
       <c r="D71">
-        <v>0.01828428948434287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02862568146014264</v>
+      </c>
+      <c r="E71">
+        <v>0.03469398550945229</v>
+      </c>
+      <c r="F71">
+        <v>0.05840699645177619</v>
+      </c>
+      <c r="G71">
+        <v>0.05114265672879231</v>
+      </c>
+      <c r="H71">
+        <v>0.01767890661654224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1121076652755495</v>
+        <v>0.09420473116949052</v>
       </c>
       <c r="C72">
-        <v>-0.0626703760496361</v>
+        <v>-0.09462210292307678</v>
       </c>
       <c r="D72">
-        <v>0.08400339668426168</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08296071704240025</v>
+      </c>
+      <c r="E72">
+        <v>-0.06654678492784426</v>
+      </c>
+      <c r="F72">
+        <v>0.03051755446440797</v>
+      </c>
+      <c r="G72">
+        <v>0.0008509002143300219</v>
+      </c>
+      <c r="H72">
+        <v>-0.02724302028441667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2156020041159878</v>
+        <v>0.1908964066953752</v>
       </c>
       <c r="C73">
-        <v>-0.04443583767574166</v>
+        <v>-0.1056657670627275</v>
       </c>
       <c r="D73">
-        <v>0.2685913929308161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1456068115519047</v>
+      </c>
+      <c r="E73">
+        <v>-0.5604604200828268</v>
+      </c>
+      <c r="F73">
+        <v>-0.2074404617958865</v>
+      </c>
+      <c r="G73">
+        <v>-0.174812565355446</v>
+      </c>
+      <c r="H73">
+        <v>0.2312404740280325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1110457060407828</v>
+        <v>0.08764166385927423</v>
       </c>
       <c r="C74">
-        <v>-0.08906208221520293</v>
+        <v>-0.1123537316026062</v>
       </c>
       <c r="D74">
-        <v>-0.03456370843684406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03700146758077644</v>
+      </c>
+      <c r="E74">
+        <v>0.0280000381840542</v>
+      </c>
+      <c r="F74">
+        <v>0.06999654010427615</v>
+      </c>
+      <c r="G74">
+        <v>-0.009969059036340707</v>
+      </c>
+      <c r="H74">
+        <v>0.03597371880390149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2584242297344355</v>
+        <v>0.210626796805021</v>
       </c>
       <c r="C75">
-        <v>-0.1536978830128059</v>
+        <v>-0.2051889995037864</v>
       </c>
       <c r="D75">
-        <v>-0.1243407819407222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1392756418019264</v>
+      </c>
+      <c r="E75">
+        <v>0.08259239434760492</v>
+      </c>
+      <c r="F75">
+        <v>0.01462464444333735</v>
+      </c>
+      <c r="G75">
+        <v>0.05648268062319983</v>
+      </c>
+      <c r="H75">
+        <v>0.04615789716322424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1464684500806094</v>
+        <v>0.115345086723522</v>
       </c>
       <c r="C76">
-        <v>-0.1171823151747869</v>
+        <v>-0.1452384727961376</v>
       </c>
       <c r="D76">
-        <v>-0.02003790221112384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02962672561005491</v>
+      </c>
+      <c r="E76">
+        <v>0.06346833119902166</v>
+      </c>
+      <c r="F76">
+        <v>0.03405548416371804</v>
+      </c>
+      <c r="G76">
+        <v>0.02732235470771024</v>
+      </c>
+      <c r="H76">
+        <v>-0.02606431168148603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04355829271086007</v>
+        <v>0.0459745789215823</v>
       </c>
       <c r="C77">
-        <v>-0.07738362312353653</v>
+        <v>-0.08621797988406875</v>
       </c>
       <c r="D77">
-        <v>0.04364307864177582</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.149049878832458</v>
+      </c>
+      <c r="E77">
+        <v>0.5267476557376343</v>
+      </c>
+      <c r="F77">
+        <v>-0.386991308480534</v>
+      </c>
+      <c r="G77">
+        <v>0.1031314802495461</v>
+      </c>
+      <c r="H77">
+        <v>0.6394431277529083</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04177588434443596</v>
+        <v>0.03753817115788284</v>
       </c>
       <c r="C78">
-        <v>-0.06279712323353569</v>
+        <v>-0.07551028175070353</v>
       </c>
       <c r="D78">
-        <v>0.1411270619966417</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1414941020228912</v>
+      </c>
+      <c r="E78">
+        <v>0.004193437972788209</v>
+      </c>
+      <c r="F78">
+        <v>0.03668877156276906</v>
+      </c>
+      <c r="G78">
+        <v>-0.004334651630788455</v>
+      </c>
+      <c r="H78">
+        <v>0.009971459641943251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06275740254617379</v>
+        <v>0.05361498555279032</v>
       </c>
       <c r="C79">
-        <v>-0.1059063440620011</v>
+        <v>-0.120804464298829</v>
       </c>
       <c r="D79">
-        <v>-0.1434082480054635</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06660149696185846</v>
+      </c>
+      <c r="E79">
+        <v>0.1978227824226699</v>
+      </c>
+      <c r="F79">
+        <v>0.498619507365307</v>
+      </c>
+      <c r="G79">
+        <v>-0.7267308342137641</v>
+      </c>
+      <c r="H79">
+        <v>0.1592413310585004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02060353412612528</v>
+        <v>0.01650142119108317</v>
       </c>
       <c r="C80">
-        <v>-0.0484033046646536</v>
+        <v>-0.04854198202137438</v>
       </c>
       <c r="D80">
-        <v>0.02786327092556635</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0243556301348249</v>
+      </c>
+      <c r="E80">
+        <v>0.0004559228181808225</v>
+      </c>
+      <c r="F80">
+        <v>0.0247071769145034</v>
+      </c>
+      <c r="G80">
+        <v>0.03240651409760194</v>
+      </c>
+      <c r="H80">
+        <v>-0.04940026655541047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1342112609819482</v>
+        <v>0.1018632498719819</v>
       </c>
       <c r="C81">
-        <v>-0.1213174497400556</v>
+        <v>-0.1424901888658066</v>
       </c>
       <c r="D81">
-        <v>-0.09939256455859002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0992893806220122</v>
+      </c>
+      <c r="E81">
+        <v>0.08850495275510978</v>
+      </c>
+      <c r="F81">
+        <v>0.05650917056074709</v>
+      </c>
+      <c r="G81">
+        <v>0.02661738018341555</v>
+      </c>
+      <c r="H81">
+        <v>-0.02649471319635284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2667301310994926</v>
+        <v>0.1972397811844926</v>
       </c>
       <c r="C82">
-        <v>-0.2439548766705726</v>
+        <v>-0.2699153688737166</v>
       </c>
       <c r="D82">
-        <v>-0.2291409955517707</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.23157042399716</v>
+      </c>
+      <c r="E82">
+        <v>0.006817973985967013</v>
+      </c>
+      <c r="F82">
+        <v>-0.06278496977258557</v>
+      </c>
+      <c r="G82">
+        <v>0.06831684937906528</v>
+      </c>
+      <c r="H82">
+        <v>-0.009526368984400083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02626430719742777</v>
+        <v>0.01518781637073044</v>
       </c>
       <c r="C83">
-        <v>-0.06093108750535042</v>
+        <v>-0.05693023871555421</v>
       </c>
       <c r="D83">
-        <v>0.05637942690044904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.06010356677055682</v>
+      </c>
+      <c r="E83">
+        <v>0.0625254256130108</v>
+      </c>
+      <c r="F83">
+        <v>-0.07497945379074222</v>
+      </c>
+      <c r="G83">
+        <v>-0.009920518906469892</v>
+      </c>
+      <c r="H83">
+        <v>0.02155231501051173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001191982790927103</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.008058194189535798</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0231275632270314</v>
+      </c>
+      <c r="E84">
+        <v>0.01309734985753173</v>
+      </c>
+      <c r="F84">
+        <v>0.02465409729769611</v>
+      </c>
+      <c r="G84">
+        <v>0.01435480596992562</v>
+      </c>
+      <c r="H84">
+        <v>-0.02402436898516898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1682808948868556</v>
+        <v>0.1330288889706141</v>
       </c>
       <c r="C85">
-        <v>-0.1244780593107226</v>
+        <v>-0.1631566099213152</v>
       </c>
       <c r="D85">
-        <v>-0.06439532295248339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08606271677266156</v>
+      </c>
+      <c r="E85">
+        <v>0.01807590868573815</v>
+      </c>
+      <c r="F85">
+        <v>0.05994282698613377</v>
+      </c>
+      <c r="G85">
+        <v>-0.0456832509276511</v>
+      </c>
+      <c r="H85">
+        <v>-0.02249460216508111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02110641564317935</v>
+        <v>0.01772269115977492</v>
       </c>
       <c r="C86">
-        <v>-0.03575242399068008</v>
+        <v>-0.0374007857454203</v>
       </c>
       <c r="D86">
-        <v>0.1188493780299074</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1213754313265531</v>
+      </c>
+      <c r="E86">
+        <v>0.02386193124600858</v>
+      </c>
+      <c r="F86">
+        <v>-0.01893817313435374</v>
+      </c>
+      <c r="G86">
+        <v>0.03656664500727995</v>
+      </c>
+      <c r="H86">
+        <v>0.06243928897343574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02785811983093724</v>
+        <v>0.03002385804743316</v>
       </c>
       <c r="C87">
-        <v>-0.02616872622463912</v>
+        <v>-0.0397604027125117</v>
       </c>
       <c r="D87">
-        <v>0.1211119581902304</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1442203875073064</v>
+      </c>
+      <c r="E87">
+        <v>0.04854508985937141</v>
+      </c>
+      <c r="F87">
+        <v>0.03362872735979922</v>
+      </c>
+      <c r="G87">
+        <v>0.01648462675854342</v>
+      </c>
+      <c r="H87">
+        <v>-0.05451521177329764</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.06809516981670953</v>
+        <v>0.05536581626974198</v>
       </c>
       <c r="C88">
-        <v>-0.04590640712892138</v>
+        <v>-0.06218961159733914</v>
       </c>
       <c r="D88">
-        <v>0.04724282141618296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.021893117276842</v>
+      </c>
+      <c r="E88">
+        <v>-0.001394579577188462</v>
+      </c>
+      <c r="F88">
+        <v>0.0283924144366994</v>
+      </c>
+      <c r="G88">
+        <v>-0.005457116055879034</v>
+      </c>
+      <c r="H88">
+        <v>-0.034134038958911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2718388279441225</v>
+        <v>0.3368600610896623</v>
       </c>
       <c r="C89">
-        <v>0.3767452050068849</v>
+        <v>0.2966111323728615</v>
       </c>
       <c r="D89">
-        <v>0.008599314582742558</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01576324206883851</v>
+      </c>
+      <c r="E89">
+        <v>0.0552809851517239</v>
+      </c>
+      <c r="F89">
+        <v>-0.005995699052693064</v>
+      </c>
+      <c r="G89">
+        <v>-0.0370899141297364</v>
+      </c>
+      <c r="H89">
+        <v>-0.1775427320044141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2216407319570076</v>
+        <v>0.269851071373804</v>
       </c>
       <c r="C90">
-        <v>0.2745273621964689</v>
+        <v>0.210400144174537</v>
       </c>
       <c r="D90">
-        <v>0.02386020884767194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03571446060482096</v>
+      </c>
+      <c r="E90">
+        <v>0.04035571479346964</v>
+      </c>
+      <c r="F90">
+        <v>0.006383284570571108</v>
+      </c>
+      <c r="G90">
+        <v>0.06437216697540303</v>
+      </c>
+      <c r="H90">
+        <v>-0.01561599960925172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1713867936254521</v>
+        <v>0.1320163977525256</v>
       </c>
       <c r="C91">
-        <v>-0.1637755480856672</v>
+        <v>-0.1816550043382272</v>
       </c>
       <c r="D91">
-        <v>-0.123667492631778</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1152162876283556</v>
+      </c>
+      <c r="E91">
+        <v>0.09578858498900691</v>
+      </c>
+      <c r="F91">
+        <v>0.06928266317852369</v>
+      </c>
+      <c r="G91">
+        <v>-0.02640450045078492</v>
+      </c>
+      <c r="H91">
+        <v>0.03398513046916479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1870470638436578</v>
+        <v>0.2574522013961707</v>
       </c>
       <c r="C92">
-        <v>0.2699543084944186</v>
+        <v>0.2350502558405421</v>
       </c>
       <c r="D92">
-        <v>0.01831539936347045</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03327845409112626</v>
+      </c>
+      <c r="E92">
+        <v>0.1055279090356337</v>
+      </c>
+      <c r="F92">
+        <v>0.0258870102211299</v>
+      </c>
+      <c r="G92">
+        <v>0.01575666336470037</v>
+      </c>
+      <c r="H92">
+        <v>-0.04462429919655669</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2400035588374712</v>
+        <v>0.2862744042105606</v>
       </c>
       <c r="C93">
-        <v>0.3012323539581982</v>
+        <v>0.2304568012475925</v>
       </c>
       <c r="D93">
-        <v>0.02395248504499785</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008872406317014116</v>
+      </c>
+      <c r="E93">
+        <v>-0.02339058113979629</v>
+      </c>
+      <c r="F93">
+        <v>0.04230330017748247</v>
+      </c>
+      <c r="G93">
+        <v>-0.006887552407748618</v>
+      </c>
+      <c r="H93">
+        <v>0.03989126487040435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3534160933836503</v>
+        <v>0.2846631417902458</v>
       </c>
       <c r="C94">
-        <v>-0.2079624337803219</v>
+        <v>-0.2847116220120711</v>
       </c>
       <c r="D94">
-        <v>-0.3617952636360781</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3806095420145653</v>
+      </c>
+      <c r="E94">
+        <v>0.02663273742777605</v>
+      </c>
+      <c r="F94">
+        <v>-0.03276683076307729</v>
+      </c>
+      <c r="G94">
+        <v>0.2595878223352154</v>
+      </c>
+      <c r="H94">
+        <v>-0.2228028831547946</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06775839498750641</v>
+        <v>0.05905684299919081</v>
       </c>
       <c r="C95">
-        <v>-0.06615063552955579</v>
+        <v>-0.07845440003678548</v>
       </c>
       <c r="D95">
-        <v>0.1386171717858845</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1191511975613703</v>
+      </c>
+      <c r="E95">
+        <v>0.2429941087076177</v>
+      </c>
+      <c r="F95">
+        <v>-0.6061327063366366</v>
+      </c>
+      <c r="G95">
+        <v>-0.4476783072281892</v>
+      </c>
+      <c r="H95">
+        <v>-0.4502004926370954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-9.476590443507367e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0003272143328240423</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001834322283202259</v>
+      </c>
+      <c r="E97">
+        <v>-0.0005172169905823002</v>
+      </c>
+      <c r="F97">
+        <v>3.346664747388821e-05</v>
+      </c>
+      <c r="G97">
+        <v>0.0001161930614916251</v>
+      </c>
+      <c r="H97">
+        <v>-0.0004846116803672028</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1751081473066829</v>
+        <v>0.1592934897734403</v>
       </c>
       <c r="C98">
-        <v>-0.05735505258983099</v>
+        <v>-0.1022771426893638</v>
       </c>
       <c r="D98">
-        <v>0.1428307592646661</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09490557799958266</v>
+      </c>
+      <c r="E98">
+        <v>-0.3192122105405184</v>
+      </c>
+      <c r="F98">
+        <v>-0.1024906070827613</v>
+      </c>
+      <c r="G98">
+        <v>-0.08460253418803247</v>
+      </c>
+      <c r="H98">
+        <v>0.1354994501745598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003145847379192012</v>
+        <v>0.004567189827252117</v>
       </c>
       <c r="C101">
-        <v>-0.02312793072406767</v>
+        <v>-0.02729133551658261</v>
       </c>
       <c r="D101">
-        <v>0.09679928495356632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1037007348494291</v>
+      </c>
+      <c r="E101">
+        <v>-0.00199922826407845</v>
+      </c>
+      <c r="F101">
+        <v>0.04517296510478806</v>
+      </c>
+      <c r="G101">
+        <v>0.02060503176454041</v>
+      </c>
+      <c r="H101">
+        <v>-0.0819251773856234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.124710198664096</v>
+        <v>0.08848965248639726</v>
       </c>
       <c r="C102">
-        <v>-0.1287518428949871</v>
+        <v>-0.1345795724597366</v>
       </c>
       <c r="D102">
-        <v>-0.09528966337411916</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09867414617277606</v>
+      </c>
+      <c r="E102">
+        <v>0.02568849292620415</v>
+      </c>
+      <c r="F102">
+        <v>-0.04324777936166682</v>
+      </c>
+      <c r="G102">
+        <v>0.02175968819589466</v>
+      </c>
+      <c r="H102">
+        <v>-6.60376253497859e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
